--- a/biology/Botanique/Lepidodendron/Lepidodendron.xlsx
+++ b/biology/Botanique/Lepidodendron/Lepidodendron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lepidodendron est un genre éteint de lycophytes arborescentes fossiles. La répartition stratigraphique s'étend du Dévonien au Carbonifère (-400 à -290 millions d'années).
 En France, les espèces du genre Lepidodendron font partie de la paléoflore des bassins houillers du Carbonifère (Alès, Graissessac, Le Plan-de-la-Tour…). Elles ont participé à la formation des gisements de charbon de cette époque.
-Morphologiquement, Lepidodendron se rapproche du genre Lepidodendropsis[1].
+Morphologiquement, Lepidodendron se rapproche du genre Lepidodendropsis.
 </t>
         </is>
       </c>
